--- a/Journaux de travail/Journal_LavaudMahé.xlsx
+++ b/Journaux de travail/Journal_LavaudMahé.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="27">
   <si>
     <t>Date</t>
   </si>
@@ -74,9 +74,6 @@
     <t>Choisir le thème, création du logo, créations de carte sur github qui travaille sur quoi, "faire le tri" dans le template donné…</t>
   </si>
   <si>
-    <t>Discussion de la maquette du site, retouches logo, pull repository en local, analyse du Login</t>
-  </si>
-  <si>
     <t>11h40</t>
   </si>
   <si>
@@ -89,7 +86,25 @@
     <t>30 minutes</t>
   </si>
   <si>
-    <t xml:space="preserve">Création de la maquette </t>
+    <t>50 minutes</t>
+  </si>
+  <si>
+    <t>11h30</t>
+  </si>
+  <si>
+    <t>40 minutes</t>
+  </si>
+  <si>
+    <t>Avancement sur la page home, correction du footer, de la boite des filtres.</t>
+  </si>
+  <si>
+    <t>Création du journal de travail personnel .</t>
+  </si>
+  <si>
+    <t>Discussion de la maquette du site, retouches logo, pull repository en local, analyse du Login.</t>
+  </si>
+  <si>
+    <t>Création de la maquette.</t>
   </si>
 </sst>
 </file>
@@ -314,15 +329,6 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="11" fontId="3" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="3" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="3" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="2" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -341,6 +347,15 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="11" fontId="3" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="3" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="3" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -356,14 +371,12 @@
         <name val="Arial"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="25" formatCode="hh:mm"/>
       <fill>
         <patternFill>
           <fgColor indexed="64"/>
           <bgColor theme="0" tint="-4.9989318521683403E-2"/>
         </patternFill>
       </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
@@ -395,6 +408,39 @@
           <bgColor theme="0" tint="-4.9989318521683403E-2"/>
         </patternFill>
       </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="25" formatCode="hh:mm"/>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
@@ -505,37 +551,6 @@
       </border>
     </dxf>
     <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill>
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
       <border>
         <top style="thin">
           <color indexed="64"/>
@@ -629,12 +644,12 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tableau2" displayName="Tableau2" ref="B4:G32" totalsRowShown="0" headerRowDxfId="10" dataDxfId="8" headerRowBorderDxfId="9" tableBorderDxfId="7" totalsRowBorderDxfId="6">
   <autoFilter ref="B4:G32"/>
   <tableColumns count="6">
-    <tableColumn id="1" name="Date" dataDxfId="4"/>
-    <tableColumn id="2" name="Heure début" dataDxfId="3"/>
-    <tableColumn id="3" name="Heure fin" dataDxfId="2"/>
-    <tableColumn id="4" name="Temps" dataDxfId="0"/>
+    <tableColumn id="1" name="Date" dataDxfId="5"/>
+    <tableColumn id="2" name="Heure début" dataDxfId="4"/>
+    <tableColumn id="3" name="Heure fin" dataDxfId="3"/>
+    <tableColumn id="4" name="Temps" dataDxfId="2"/>
     <tableColumn id="5" name="Projet" dataDxfId="1"/>
-    <tableColumn id="6" name="Description" dataDxfId="5"/>
+    <tableColumn id="6" name="Description" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -905,8 +920,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z139"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -922,14 +937,14 @@
   <sheetData>
     <row r="1" spans="1:26" ht="63" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="18"/>
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="21"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="27"/>
       <c r="H1" s="18"/>
       <c r="I1" s="18"/>
       <c r="J1" s="18"/>
@@ -1051,13 +1066,13 @@
       <c r="B5" s="3">
         <v>44230</v>
       </c>
-      <c r="C5" s="22" t="s">
+      <c r="C5" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="23" t="s">
+      <c r="D5" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="26" t="s">
+      <c r="E5" s="23" t="s">
         <v>13</v>
       </c>
       <c r="F5" s="17" t="s">
@@ -1091,13 +1106,13 @@
       <c r="B6" s="5">
         <v>44230</v>
       </c>
-      <c r="C6" s="24" t="s">
+      <c r="C6" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="25" t="s">
+      <c r="D6" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="E6" s="27" t="s">
+      <c r="E6" s="24" t="s">
         <v>14</v>
       </c>
       <c r="F6" s="17" t="s">
@@ -1131,20 +1146,20 @@
       <c r="B7" s="5">
         <v>44232</v>
       </c>
-      <c r="C7" s="24" t="s">
+      <c r="C7" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="E7" s="27" t="s">
-        <v>19</v>
+      <c r="D7" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" s="24" t="s">
+        <v>18</v>
       </c>
       <c r="F7" s="17" t="s">
         <v>7</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="H7" s="18"/>
       <c r="I7" s="18"/>
@@ -1171,20 +1186,20 @@
       <c r="B8" s="7">
         <v>44232</v>
       </c>
-      <c r="C8" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="D8" s="24" t="s">
+      <c r="C8" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="27" t="s">
-        <v>20</v>
+      <c r="E8" s="24" t="s">
+        <v>19</v>
       </c>
       <c r="F8" s="17" t="s">
         <v>7</v>
       </c>
       <c r="G8" s="9" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="H8" s="18"/>
       <c r="I8" s="18"/>
@@ -1209,10 +1224,10 @@
     <row r="9" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A9" s="18"/>
       <c r="B9" s="7"/>
-      <c r="C9" s="22"/>
-      <c r="D9" s="22"/>
-      <c r="E9" s="27" t="s">
-        <v>18</v>
+      <c r="C9" s="19"/>
+      <c r="D9" s="19"/>
+      <c r="E9" s="24" t="s">
+        <v>17</v>
       </c>
       <c r="F9" s="17" t="s">
         <v>7</v>
@@ -1241,10 +1256,10 @@
     <row r="10" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A10" s="18"/>
       <c r="B10" s="7"/>
-      <c r="C10" s="22"/>
-      <c r="D10" s="22"/>
-      <c r="E10" s="27" t="s">
-        <v>18</v>
+      <c r="C10" s="19"/>
+      <c r="D10" s="19"/>
+      <c r="E10" s="24" t="s">
+        <v>17</v>
       </c>
       <c r="F10" s="17" t="s">
         <v>7</v>
@@ -1273,10 +1288,10 @@
     <row r="11" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A11" s="18"/>
       <c r="B11" s="7"/>
-      <c r="C11" s="22"/>
-      <c r="D11" s="22"/>
-      <c r="E11" s="27" t="s">
-        <v>18</v>
+      <c r="C11" s="19"/>
+      <c r="D11" s="19"/>
+      <c r="E11" s="24" t="s">
+        <v>17</v>
       </c>
       <c r="F11" s="17" t="s">
         <v>7</v>
@@ -1305,10 +1320,10 @@
     <row r="12" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A12" s="18"/>
       <c r="B12" s="7"/>
-      <c r="C12" s="24"/>
-      <c r="D12" s="24"/>
-      <c r="E12" s="27" t="s">
-        <v>18</v>
+      <c r="C12" s="21"/>
+      <c r="D12" s="21"/>
+      <c r="E12" s="24" t="s">
+        <v>17</v>
       </c>
       <c r="F12" s="17" t="s">
         <v>7</v>
@@ -1336,16 +1351,24 @@
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A13" s="18"/>
-      <c r="B13" s="12"/>
-      <c r="C13" s="22"/>
-      <c r="D13" s="22"/>
-      <c r="E13" s="27" t="s">
-        <v>18</v>
+      <c r="B13" s="12">
+        <v>44272</v>
+      </c>
+      <c r="C13" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="D13" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13" s="24" t="s">
+        <v>20</v>
       </c>
       <c r="F13" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="G13" s="11"/>
+      <c r="G13" s="11" t="s">
+        <v>24</v>
+      </c>
       <c r="H13" s="18"/>
       <c r="I13" s="18"/>
       <c r="J13" s="18"/>
@@ -1368,16 +1391,24 @@
     </row>
     <row r="14" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A14" s="18"/>
-      <c r="B14" s="7"/>
-      <c r="C14" s="22"/>
-      <c r="D14" s="22"/>
-      <c r="E14" s="27" t="s">
-        <v>18</v>
+      <c r="B14" s="12">
+        <v>44272</v>
+      </c>
+      <c r="C14" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="D14" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="E14" s="24" t="s">
+        <v>22</v>
       </c>
       <c r="F14" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="G14" s="8"/>
+      <c r="G14" s="8" t="s">
+        <v>23</v>
+      </c>
       <c r="H14" s="18"/>
       <c r="I14" s="18"/>
       <c r="J14" s="18"/>
@@ -1401,10 +1432,10 @@
     <row r="15" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A15" s="18"/>
       <c r="B15" s="12"/>
-      <c r="C15" s="22"/>
-      <c r="D15" s="22"/>
-      <c r="E15" s="27" t="s">
-        <v>18</v>
+      <c r="C15" s="19"/>
+      <c r="D15" s="19"/>
+      <c r="E15" s="24" t="s">
+        <v>17</v>
       </c>
       <c r="F15" s="17" t="s">
         <v>7</v>
@@ -1433,10 +1464,10 @@
     <row r="16" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A16" s="18"/>
       <c r="B16" s="7"/>
-      <c r="C16" s="22"/>
-      <c r="D16" s="22"/>
-      <c r="E16" s="27" t="s">
-        <v>18</v>
+      <c r="C16" s="19"/>
+      <c r="D16" s="19"/>
+      <c r="E16" s="24" t="s">
+        <v>17</v>
       </c>
       <c r="F16" s="17" t="s">
         <v>7</v>
@@ -1465,10 +1496,10 @@
     <row r="17" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A17" s="18"/>
       <c r="B17" s="13"/>
-      <c r="C17" s="22"/>
-      <c r="D17" s="22"/>
-      <c r="E17" s="27" t="s">
-        <v>18</v>
+      <c r="C17" s="19"/>
+      <c r="D17" s="19"/>
+      <c r="E17" s="24" t="s">
+        <v>17</v>
       </c>
       <c r="F17" s="17" t="s">
         <v>7</v>
@@ -1497,10 +1528,10 @@
     <row r="18" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A18" s="18"/>
       <c r="B18" s="13"/>
-      <c r="C18" s="22"/>
-      <c r="D18" s="22"/>
-      <c r="E18" s="27" t="s">
-        <v>18</v>
+      <c r="C18" s="19"/>
+      <c r="D18" s="19"/>
+      <c r="E18" s="24" t="s">
+        <v>17</v>
       </c>
       <c r="F18" s="17" t="s">
         <v>7</v>
@@ -1529,10 +1560,10 @@
     <row r="19" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A19" s="18"/>
       <c r="B19" s="14"/>
-      <c r="C19" s="24"/>
-      <c r="D19" s="24"/>
-      <c r="E19" s="27" t="s">
-        <v>18</v>
+      <c r="C19" s="21"/>
+      <c r="D19" s="21"/>
+      <c r="E19" s="24" t="s">
+        <v>17</v>
       </c>
       <c r="F19" s="17" t="s">
         <v>7</v>
@@ -1561,10 +1592,10 @@
     <row r="20" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A20" s="18"/>
       <c r="B20" s="7"/>
-      <c r="C20" s="22"/>
-      <c r="D20" s="22"/>
-      <c r="E20" s="27" t="s">
-        <v>18</v>
+      <c r="C20" s="19"/>
+      <c r="D20" s="19"/>
+      <c r="E20" s="24" t="s">
+        <v>17</v>
       </c>
       <c r="F20" s="17" t="s">
         <v>7</v>
@@ -1593,10 +1624,10 @@
     <row r="21" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A21" s="18"/>
       <c r="B21" s="12"/>
-      <c r="C21" s="22"/>
-      <c r="D21" s="22"/>
-      <c r="E21" s="27" t="s">
-        <v>18</v>
+      <c r="C21" s="19"/>
+      <c r="D21" s="19"/>
+      <c r="E21" s="24" t="s">
+        <v>17</v>
       </c>
       <c r="F21" s="17" t="s">
         <v>7</v>
@@ -1625,10 +1656,10 @@
     <row r="22" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A22" s="18"/>
       <c r="B22" s="3"/>
-      <c r="C22" s="24"/>
-      <c r="D22" s="24"/>
-      <c r="E22" s="27" t="s">
-        <v>18</v>
+      <c r="C22" s="21"/>
+      <c r="D22" s="21"/>
+      <c r="E22" s="24" t="s">
+        <v>17</v>
       </c>
       <c r="F22" s="17" t="s">
         <v>7</v>
@@ -1657,10 +1688,10 @@
     <row r="23" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A23" s="18"/>
       <c r="B23" s="3"/>
-      <c r="C23" s="24"/>
-      <c r="D23" s="24"/>
-      <c r="E23" s="27" t="s">
-        <v>18</v>
+      <c r="C23" s="21"/>
+      <c r="D23" s="21"/>
+      <c r="E23" s="24" t="s">
+        <v>17</v>
       </c>
       <c r="F23" s="17" t="s">
         <v>7</v>
@@ -1689,10 +1720,10 @@
     <row r="24" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A24" s="18"/>
       <c r="B24" s="3"/>
-      <c r="C24" s="24"/>
-      <c r="D24" s="24"/>
-      <c r="E24" s="27" t="s">
-        <v>18</v>
+      <c r="C24" s="21"/>
+      <c r="D24" s="21"/>
+      <c r="E24" s="24" t="s">
+        <v>17</v>
       </c>
       <c r="F24" s="17" t="s">
         <v>7</v>
@@ -1721,10 +1752,10 @@
     <row r="25" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A25" s="18"/>
       <c r="B25" s="3"/>
-      <c r="C25" s="24"/>
-      <c r="D25" s="24"/>
-      <c r="E25" s="27" t="s">
-        <v>18</v>
+      <c r="C25" s="21"/>
+      <c r="D25" s="21"/>
+      <c r="E25" s="24" t="s">
+        <v>17</v>
       </c>
       <c r="F25" s="17" t="s">
         <v>7</v>
@@ -1753,10 +1784,10 @@
     <row r="26" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A26" s="18"/>
       <c r="B26" s="3"/>
-      <c r="C26" s="24"/>
-      <c r="D26" s="24"/>
-      <c r="E26" s="27" t="s">
-        <v>18</v>
+      <c r="C26" s="21"/>
+      <c r="D26" s="21"/>
+      <c r="E26" s="24" t="s">
+        <v>17</v>
       </c>
       <c r="F26" s="17" t="s">
         <v>7</v>
@@ -1785,10 +1816,10 @@
     <row r="27" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A27" s="18"/>
       <c r="B27" s="3"/>
-      <c r="C27" s="24"/>
-      <c r="D27" s="24"/>
-      <c r="E27" s="27" t="s">
-        <v>18</v>
+      <c r="C27" s="21"/>
+      <c r="D27" s="21"/>
+      <c r="E27" s="24" t="s">
+        <v>17</v>
       </c>
       <c r="F27" s="17" t="s">
         <v>7</v>
@@ -1817,10 +1848,10 @@
     <row r="28" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A28" s="18"/>
       <c r="B28" s="3"/>
-      <c r="C28" s="24"/>
-      <c r="D28" s="24"/>
-      <c r="E28" s="27" t="s">
-        <v>18</v>
+      <c r="C28" s="21"/>
+      <c r="D28" s="21"/>
+      <c r="E28" s="24" t="s">
+        <v>17</v>
       </c>
       <c r="F28" s="17" t="s">
         <v>7</v>
@@ -1849,10 +1880,10 @@
     <row r="29" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A29" s="18"/>
       <c r="B29" s="3"/>
-      <c r="C29" s="24"/>
-      <c r="D29" s="24"/>
-      <c r="E29" s="27" t="s">
-        <v>18</v>
+      <c r="C29" s="21"/>
+      <c r="D29" s="21"/>
+      <c r="E29" s="24" t="s">
+        <v>17</v>
       </c>
       <c r="F29" s="17" t="s">
         <v>7</v>
@@ -1881,10 +1912,10 @@
     <row r="30" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A30" s="18"/>
       <c r="B30" s="3"/>
-      <c r="C30" s="22"/>
-      <c r="D30" s="23"/>
-      <c r="E30" s="27" t="s">
-        <v>18</v>
+      <c r="C30" s="19"/>
+      <c r="D30" s="20"/>
+      <c r="E30" s="24" t="s">
+        <v>17</v>
       </c>
       <c r="F30" s="17" t="s">
         <v>7</v>
@@ -1913,10 +1944,10 @@
     <row r="31" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A31" s="18"/>
       <c r="B31" s="5"/>
-      <c r="C31" s="24"/>
-      <c r="D31" s="25"/>
-      <c r="E31" s="27" t="s">
-        <v>18</v>
+      <c r="C31" s="21"/>
+      <c r="D31" s="22"/>
+      <c r="E31" s="24" t="s">
+        <v>17</v>
       </c>
       <c r="F31" s="17" t="s">
         <v>7</v>
@@ -1945,10 +1976,10 @@
     <row r="32" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A32" s="18"/>
       <c r="B32" s="5"/>
-      <c r="C32" s="24"/>
-      <c r="D32" s="25"/>
-      <c r="E32" s="27" t="s">
-        <v>18</v>
+      <c r="C32" s="21"/>
+      <c r="D32" s="22"/>
+      <c r="E32" s="24" t="s">
+        <v>17</v>
       </c>
       <c r="F32" s="17" t="s">
         <v>7</v>

--- a/Journaux de travail/Journal_LavaudMahé.xlsx
+++ b/Journaux de travail/Journal_LavaudMahé.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="31">
   <si>
     <t>Date</t>
   </si>
@@ -105,6 +105,18 @@
   </si>
   <si>
     <t>Création de la maquette.</t>
+  </si>
+  <si>
+    <t>8h00</t>
+  </si>
+  <si>
+    <t>9h35</t>
+  </si>
+  <si>
+    <t>95minutes</t>
+  </si>
+  <si>
+    <t>Ajout des annonces et améiloration du style</t>
   </si>
 </sst>
 </file>
@@ -920,8 +932,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z139"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1431,16 +1443,24 @@
     </row>
     <row r="15" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A15" s="18"/>
-      <c r="B15" s="12"/>
-      <c r="C15" s="19"/>
-      <c r="D15" s="19"/>
+      <c r="B15" s="12">
+        <v>44277</v>
+      </c>
+      <c r="C15" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" s="19" t="s">
+        <v>28</v>
+      </c>
       <c r="E15" s="24" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="F15" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="G15" s="10"/>
+      <c r="G15" s="10" t="s">
+        <v>30</v>
+      </c>
       <c r="H15" s="18"/>
       <c r="I15" s="18"/>
       <c r="J15" s="18"/>

--- a/Journaux de travail/Journal_LavaudMahé.xlsx
+++ b/Journaux de travail/Journal_LavaudMahé.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="38">
   <si>
     <t>Date</t>
   </si>
@@ -951,7 +951,7 @@
   <dimension ref="A1:Z139"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1587,7 +1587,9 @@
       <c r="C18" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="D18" s="18"/>
+      <c r="D18" s="18" t="s">
+        <v>15</v>
+      </c>
       <c r="E18" s="23" t="s">
         <v>16</v>
       </c>
